--- a/test/fixtures/files/tpl.xlsx
+++ b/test/fixtures/files/tpl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amiralles/dev/stash/5411-IM-API/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amiralles/Projects/stash/5411-IM-API/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE102B6-4865-E84B-A97F-69102FAB98BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5CFB99-9DB7-B041-AC8E-C01DE642487A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30700" yWindow="6660" windowWidth="25600" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Modelo" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>STYLE NAME</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>BLUE</t>
+  </si>
+  <si>
+    <t>REFERENCE_ID</t>
   </si>
 </sst>
 </file>
@@ -602,20 +605,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="26" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="5" customWidth="1"/>
+    <col min="5" max="27" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,25 +631,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -654,24 +662,25 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
       </c>
       <c r="G2" s="2">
         <v>2</v>
       </c>
       <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -681,36 +690,37 @@
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
       </c>
       <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/test/fixtures/files/tpl.xlsx
+++ b/test/fixtures/files/tpl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amiralles/Projects/stash/5411-IM-API/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonatansteckler/dev/stash/5411-IM-API/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5CFB99-9DB7-B041-AC8E-C01DE642487A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0ED511-FCE7-9844-91B3-C575FB10BCDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30700" yWindow="6660" windowWidth="25600" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Modelo" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>STYLE NAME</t>
   </si>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,16 +152,25 @@
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -338,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -389,6 +398,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -616,11 +628,11 @@
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="5" customWidth="1"/>
-    <col min="5" max="27" width="10.6640625" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" style="5" customWidth="1"/>
+    <col min="6" max="28" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,26 +645,29 @@
       <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -663,24 +678,25 @@
         <v>11</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
       </c>
       <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -691,36 +707,37 @@
         <v>36</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
       </c>
       <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/test/fixtures/files/tpl.xlsx
+++ b/test/fixtures/files/tpl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amiralles/dev/stash/5411-IM-API/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonatansteckler/dev/stash/5411-IM-API/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE102B6-4865-E84B-A97F-69102FAB98BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0ED511-FCE7-9844-91B3-C575FB10BCDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Modelo" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>STYLE NAME</t>
   </si>
@@ -133,12 +133,15 @@
   <si>
     <t>BLUE</t>
   </si>
+  <si>
+    <t>REFERENCE_ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -149,16 +152,25 @@
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -335,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -386,6 +398,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,20 +617,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="26" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" style="5" customWidth="1"/>
+    <col min="6" max="28" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,25 +643,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -654,24 +677,26 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -681,36 +706,38 @@
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
